--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/44_Karaman_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/44_Karaman_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8273774-AB31-4596-B6AE-F654220FC180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6718A32B-264F-4BE0-A5D9-4D21523C220A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{79FB896D-61AF-4420-8AE2-E7F3FB13D115}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{A5146849-F058-4169-8A87-CFE1FA1E3D52}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -947,14 +947,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4DF11355-18C7-4EDC-937A-4735B39EC2AC}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E1C9AA94-1056-4D55-BE83-573D395C1BB8}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{1909C96D-E1EB-42BD-8991-0B7823360200}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{78BB8575-2EB5-42AE-B89F-8F50B707EA5A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{DD1A1E28-18F0-4DB8-8323-D8F9F2F0DDF8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{F5FCD8DD-2F60-41FA-9A48-45FD7D99965B}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{F93EC8D5-E618-4441-A389-CA05505DA0EA}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{060D557F-E140-4DC0-BA06-FF9F28616F30}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{71AD91EE-CFCC-4030-BC74-776A84E1CACC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7F28746B-1A75-4ECB-986A-32D13E41D2DA}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{9E044D15-317C-49E8-881E-538CFB837A00}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{25F7B99E-86C1-442A-A18A-00B79315981E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{24934707-1823-4274-BB32-40BB9F260A14}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{8F2C4F21-D7D5-4A04-88C1-D7AAA400DF0F}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{23ED95BD-64F5-4847-B970-B52E76ACC37C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{3F922C03-CBED-4679-9870-C984E3632DC9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C75022-42B8-4307-A90D-177AFE11D294}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61B6CF7-D0CE-47C2-AF28-997B45ED44A2}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2564,18 +2564,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{588590A6-7979-4451-8A20-D378BBA75BB2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F74C6911-D570-4FB1-BA9B-A62A25F90A4B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0D0728DE-0024-4013-A054-F049FD243A85}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F9E6F7F4-D297-4BF0-92DB-7C3940D50D09}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A1DA5F5D-4E4C-4566-A8B2-AD3D0B01B9B3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{576193AD-56FF-457F-8BA2-885088C86458}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39F9889A-18BF-4475-86BA-8D2E5DD9E2AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6064C760-577B-4D16-A538-6552CB7574FF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA87E2EC-CEBD-4685-9B98-129B9F7D7984}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71621BF7-EF71-4CA5-A5A8-6A893242E8D7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A56F681C-7731-47E5-A53E-64CA26FB97B0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{749617CA-B153-4611-A084-04305E4A16EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD484331-99EE-4EF3-86B0-618865FB7EFC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02BA596C-30FD-4B99-8805-D789B582CF4F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CAEB3F94-3E06-462D-AE77-CBBA837608DE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F756B52B-D6D0-41D5-842D-5F09E56FC662}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{1382F3A6-D8E9-489D-82CB-3ADB3BB95068}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6D640E5D-E43C-4850-9343-CBBE8FC439BE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A315D13-7F88-419F-9335-99A6F9003589}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69081AD3-6FFB-4B66-939A-7A5A0CF9259F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A299979D-21A8-477E-9C37-003E6F4DFA7C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{596AA584-6449-4954-89DE-0CFF261FEC74}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8CDA51CB-DB86-41C2-BE8B-C31FE06DD9D2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{22362FB8-A350-405D-AD50-713F5D2B0903}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2588,7 +2588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F0509D-78A4-45F0-932C-453EEAF86525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7640BA6B-2549-4EEA-94ED-557F59502B0A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3813,18 +3813,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3825B09E-17B2-4BCC-A2CC-FB84F589965B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3469E367-095A-4EE8-978F-ABF2D39A94AA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EA0F9ED6-E4FF-4527-BE52-73CE4B65C711}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{06F73B98-90B0-4C74-896C-A1B53C4FC9B2}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C93F74B4-12BA-41CF-B2B6-6BE29C183112}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37620CFC-3654-4A9A-8EDB-E61933DB6BD5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11618859-AA10-471B-ADBB-AA1A269B7DFF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{068C4B32-1303-4144-88F0-B30947ADC90C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{81ED94FA-DD0D-4C57-AD20-C8ACF1F307D9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A41ED91B-B417-42F4-8C19-C45880345527}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54F44257-62F6-488F-A9A0-F332864F7CBC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7465A031-696A-4D80-8C81-E2BC56C8A9D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5AE22776-AC4A-46F8-B51D-96C1F605C8BF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D3F6F3C-2CCB-4098-ABC8-B1559F2EBCE9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0B40CC48-405E-49EE-8541-6222852FA9B5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{502E1D4B-AA64-4526-9380-B57E43F74F27}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FCEBF7B5-E9A9-4156-AF57-45ACE817F554}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{26EBBB3D-FAFC-4F62-BB02-116817666256}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76ED2D9D-C02C-46DD-8097-35B1C189C59B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F891E39-67F0-4A63-B014-86AF87FEDD91}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BCC85F2D-38A3-4E37-B655-E7A6BCDE29BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F9E1D76-1EC6-4EA6-A3F7-BEF7B0508225}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2B9F280-FA79-4335-9268-DF2E0A5319DF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2A358905-2D9C-4042-A64F-03B11CFD445D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3837,7 +3837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5B810A-DEBB-4CB8-8471-CD8B95327A97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E268F91-23A3-44D5-B7E2-0235AE5AEA49}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5062,18 +5062,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3308A263-D489-401A-A116-216B24C8AFF1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04310A03-EF5B-40A4-A6A5-7BD6DC76527C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{22131368-50DC-447D-872A-D69C6DE30B3F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{991C231C-E2CC-4F62-919B-78797D468935}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6EEAD540-4198-4BBC-A178-BD03CB331A6A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A6078DF-E40C-4A6F-9052-8412DEDD5CD5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF18AE00-382C-48D2-AD22-E9217652ECD0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E8D0B99-9467-4376-96C7-0344F6A072CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38AB2AF7-0511-46F2-933C-D879AF6FD122}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C0184991-126F-406D-BE4D-24EDA2BB2851}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B52F3FBA-7FFB-43F7-946F-B8A70018629C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{57A31908-50F0-440C-A986-B7FF585CD7FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8606CFE-E1EA-4291-9E93-5B55669D4FC6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0DF8FDBD-5184-4F5B-9CA9-3399BAFD08CC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7571D3E8-E2AD-4050-94AB-9420BCEA428F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1E7AE50C-B504-449B-840F-21A195843FDC}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E43A2034-4A60-4DD3-8B86-48A89A886386}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CFA08127-CDD5-45B1-A0F0-4F0E24B426B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{363FB810-8444-43A0-BF9C-285460E1EB30}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D9627FA-13EF-48EC-ADB0-295D32579496}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A06B33D4-A93C-49C1-945D-E13247524448}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9864288E-5FDC-4AD8-B130-CF399344697E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01E14464-6E65-4406-A579-B3D3EA8B05ED}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{815277DF-1234-4296-92A4-AE7EB39119DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5086,7 +5086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72AF476-735A-41F4-B6D4-79F35F2BEE16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413B20DE-6D63-405A-B3F4-7ED76D15BC9E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6291,18 +6291,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91A0AE2E-1AA6-4B14-B493-B61FDAA31063}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E6E950AF-0B34-4FA7-8551-D40E2BBD8180}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{48FB6C63-F14A-4071-8652-DB5933FB248A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C1646559-BF2D-4456-9CC0-B705D89DD808}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F41D0578-D871-4509-9495-8259421F2033}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA4D6FBE-B167-4622-AE98-1A84259CF509}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E080934-183B-4AA7-AB05-A330739FED8A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2EFB531F-079B-42C4-B5C4-27B211C36CFB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54E2BFA0-AADB-470D-9699-B65D5D801564}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{897B00C2-16E0-4DFA-B56B-B63091A4F6B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B6FD613-72B6-42B2-93B3-F388A67047E5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9DF4DCF5-C2AD-4B80-979A-01770D5123CE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{744A5C80-A10E-45B0-B59A-2AF86CEB4E11}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13C641DD-126A-4B4C-9442-949F0194F3D0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3260251F-8692-412A-8BD1-A66107BCB05F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6C6AF2E1-D342-4D34-8AAD-0699278F5F0D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{84E66C8E-6BAB-41D5-BF7C-7A7A70E439A9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{04C29449-7819-48F7-9DDD-949BDAB77838}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{264CF003-CC5E-4DC2-B200-1F6B4C9B25B9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1325A260-1D44-4194-BA3A-5ECCE4957BBA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E60BBC0-62EF-441A-878E-FDB31D660BE0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{382876B0-6317-4513-8CE6-91CFA2C0117E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CADE380-8A96-4433-93FA-B8BD46224770}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D48FF423-D4AD-4A40-A385-9E09D840FAA1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6315,7 +6315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA652D2-8CFC-4B1D-B037-CAA013ADFABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD920A79-6E5C-41C5-96B2-D606C70A37C3}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7552,18 +7552,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{437CA8FA-A376-468A-AD00-F27CCBD76D4B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24DFDC6D-7287-468F-A35D-16328F2FAA46}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EDADBB3A-5AD8-43C0-A28F-BA574444B7A8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DCBF89AE-861D-4D66-B417-EBEE4C324557}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{71C3E009-73C0-4E0E-A9F1-E6EA144275CF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9821EA5-09F3-4E73-A55C-230A11A46377}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{756EE2D0-E4AA-4DFB-86AD-E03AB1369398}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4954DF15-D7E4-418E-8217-B7EBB09172FF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1453EA1-9E69-49AD-B7D9-345B5872DFD0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EFAE529F-77F0-4272-BF68-9EF40AEF0D02}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F911CB00-C9E1-4C3E-AE31-322928A00C7F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8CAA6E8F-D1F5-4B64-AF8F-5C9B5689686E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{24B68009-0D15-4949-9F2F-F382CFDDDFFA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{947ACB34-73F6-4E8C-997A-443756240A12}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0CE25E18-768F-409B-868A-A1FE94520F4B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5E8590AD-06FA-47B3-9B77-44F90F3D3B58}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A5D24736-1B4C-4C3A-989E-C6EE1CFE0A4A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B7503983-674A-407A-9611-D535F645CC8D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67ED42CD-9963-4A0C-AA4C-28EFD5219B52}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ECA9FC5A-CA0B-4FEB-8819-742B72CE3F51}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F87E9E8-129A-413A-8020-117D0DE9284D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7892BE06-1F26-4996-801E-D8BE5AD16EDA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20E08055-DDD3-45F9-A993-04614C47BCF9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5326C365-A76F-4325-956D-188C6F00B8CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7576,7 +7576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1565216-821E-4498-AD18-E53DB9F85CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B452A55-6CE9-4467-90F1-F2547167FF61}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8813,18 +8813,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{393B3C6E-30D5-4E6A-8D36-FA8B7571AB7D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3ED35461-9CD1-46AB-97B1-3D0DDF1BCC65}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B7F2394-E91B-4088-B808-2FF435CEE1BA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FBBCDA32-6560-4098-8E0C-CDB11E0F64B6}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5E3E4B9A-A407-4B05-B031-33D4DA8CFE7C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D01A2F9-EE8B-425B-83E3-D16EF71EC797}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{000D8CF3-0B00-4136-B0CE-3D1DA5F300C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43E5C893-C721-4714-B685-CBF9A351522D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B777962-627B-4B65-A38F-2EE07DCD5132}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B49AB5F7-06B1-4CB6-AF75-889379400F74}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA867037-977F-4AC4-B907-DCC132E7E51E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B137A205-9880-43BB-89E2-9935257058BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0F11499-3F2B-49D3-BD63-76312303C1E3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D721F7B-83D7-4D01-A17D-2F9424AD3C7D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FF50928F-4F6C-4AE1-9869-74211B2F28D9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5C9364C4-7497-4CD6-B203-15C6D391412E}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4422B876-21AB-496C-AEE7-1CA936BF8D03}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD4AEA2A-7E53-42D3-9145-E4A34AF49E71}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD51D924-942D-4DE6-981F-71D533353075}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CD16978D-500A-4F9E-805E-1C6CC7515AE3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22C599A3-567C-4285-9D8D-223BB0500B84}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C343DB0-3D68-441D-BF0F-142F7073DBA2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E9041FD-BF2B-43F8-9CE1-0551148E41E2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0E0574BC-E1C5-4098-BD15-C76969C6F759}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8837,7 +8837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9247A94B-C368-412E-9493-1B8BFCD58197}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B22168-CAF5-4CDC-9F68-788884FBA6B6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10074,18 +10074,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7CF74DA-BD2D-444B-BCDD-B583EF02264A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{811444B4-A19D-4AB7-833A-6EA992A2B037}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{95C4DB41-ADD7-42B4-8D87-9F6B1A22B0AB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{365E37BB-6BD8-46AB-88FE-38E56F8BBF1C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5D3C1CAE-CD9A-45A9-983C-8C5F833FC195}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{979D85DA-03FB-48E0-8C98-2BBA59DC33F6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FEE2A20D-3B6C-420F-9DB3-8C0D11BE949F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE3AC4BB-F9DE-4A09-8535-7A8E7595EBF1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{292360EF-C8A9-49C7-90A7-A757F926F4EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{92326C78-272F-4348-A87D-E6B4F86EB80B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C3BCCFF-84BF-42DB-8101-63E420F6EFCD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FAC4BB86-70E6-4E58-84A7-83D8E8C3C9FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D479EFB-BE83-41B4-B72D-0C73765A8140}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A71D3995-3B70-424B-8C59-4D8FADDC0024}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C9FB821A-F46F-457F-997F-114B592A98CE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BFC8EABF-2FA1-42C6-9829-A0F11101AABD}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{99992D98-84AB-4DA4-BC92-D0F6198EA701}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE79AB78-1900-4180-9D72-3EE494876117}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B586A94-6643-46E1-8681-C7410E362F5E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF7B2C19-E358-45CE-95C3-ED21E0959339}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BC96843-580C-40DE-9599-C9BFC66E0096}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C5BBFE8F-89AA-4DC2-9F8C-F54648667307}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B43E46A-AAE3-4BA1-9AB8-F48C7CF3DBA9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B36D15C-F4B4-46DF-AD9C-5BB3C2C868B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10098,7 +10098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646758E1-D638-4B5E-BC40-6AE145E406C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66CF70B-D03C-472E-9BB9-F6126A0AF228}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11335,18 +11335,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37AACE8A-B14C-4F77-94E9-1F390BB4C40B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E26BE5F-A4A3-4CB1-B3D9-C5DDED524BE1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8C90B687-E407-4559-92F8-93D31062319A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{282B6946-0A42-49F2-8640-CC6108B247CC}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CB2A332F-8038-4FAA-A6D2-88EBE0CD5B66}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC8DEFB8-265A-4316-B4E5-69435BB4E5D2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ABADA8B0-A476-49E8-9BDF-6713B5A97BD9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F0BAA17D-B53C-4952-9BB8-FED20B39AD13}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7082646-AF2B-4CBF-9AAC-EB426C2165A3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{47B9D278-925F-4D1B-83CA-3E7C681491CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F93AAAF3-AE3F-4DF0-8861-7FD245BD8D28}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81FE4E9E-12F8-4C0B-B3B8-A2E9D85B6811}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A00347CB-A50C-4A1F-842A-193728CB21C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7675857B-4348-4F2D-A472-2720A6AA6B7F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1D807161-6EA7-4E66-88E3-22E4153ACA6F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7926A16B-F301-4746-AAD4-7AE3D88C5961}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{74C4AD6F-9DD1-4952-96F4-91E4BB60D023}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2022DE6E-33E0-4F7B-B24C-B3F544202CE8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34C55E10-ECB6-4B1D-9AE1-04A47106B3BF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A6BEDA52-03E9-47E1-9FBF-86915594D378}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8F212C86-9776-4FA0-BC72-C487EB10CCFE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89FAF7EE-5ED8-4252-A99D-754E51BED561}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBD60DC8-7846-4D5D-AF92-477EF8AE910B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5304E44C-D800-4BCC-8747-6B2D0F862796}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11359,7 +11359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4570B7-3AAE-404A-BED1-ABD0945C0ED6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADE6BA6-BDC5-4682-A2B4-330CA3F83635}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12596,18 +12596,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3A9F768-3DD1-4FF4-A827-5B96B909C05F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5EA98E2C-D315-48D7-BE11-EA24A2089E31}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0CCE7AA0-DAEE-4060-86F4-527802DDC531}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47BD0BE7-F2E2-4322-A0ED-A5C62173C163}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{76102534-312F-463A-9F2A-537438339CCB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E534DFAE-4D26-4F58-ABA9-ABF67D87EA79}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7C20601-C50F-4794-9D0D-A4DA7383B2E7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EFAAE736-5268-44F7-86C9-5F006C105F0E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3ED3B64E-3C5C-4E0A-A207-6D072246FBAB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC8C5A2F-DF1F-4CE9-8CE2-5E2C35A99CAF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C4BE0BA-CAC9-4F29-8E97-B5FA323ADACB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DA54EE40-B70A-43BE-A184-CA20EB9B368D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CEBEDC03-25A5-4D3C-A4F4-58D121DC1DCB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E215F7C9-6444-4ADC-B456-CE4BBE8D789A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5522A9CC-3E02-4A5B-AA48-621207E1C8FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A4386313-5F44-48FB-B65B-A98DF56AA270}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EDF8B196-6ABE-4BE8-ADD7-CFAEB6E4C8D3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{56E4D91E-AED7-4179-9340-1B32DCFF86CD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2BFC989B-35CB-4023-A259-E9BF889CCE31}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3287B96-129D-48D0-968E-C931F8622F69}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9CB1637B-3F88-4EAD-A596-17E646DEFC1E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1077BF11-0BFE-46A7-B7B3-9FFB541EEB04}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C9F9074-28EF-4A33-BB29-E70C190D7A19}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{73618C58-7C0E-4DE0-AB27-BBC50FD809C6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12620,7 +12620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7861660-CC37-4295-94C3-4CE871F49004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9034BC-4C33-4A36-B1AE-6E034FF6DF76}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13857,18 +13857,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8FAC4887-9A9C-4144-B360-ABC438979136}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4777C48-00CB-43A6-9191-A5F28A473D95}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{57E19CCD-7AE8-4F41-8477-585FD7DDE984}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8EE1429E-7022-46DA-9141-428DD31D0911}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{21CE9D6D-2816-4FF7-9223-C15F115A9EA8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30345519-462C-4060-9121-4438A16A8779}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{543704D9-22D8-4BDC-A3D9-EA2A6B7F5956}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72F76C6A-EDC3-4AC5-9ECD-9AB8805EE9D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3E2CB29-7E83-4EFD-98C1-1F1C245C5EB5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B5DC7F29-E5DD-490E-BE7E-D1EC55A89620}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{035A4D33-2E0F-4006-8564-3286D6075531}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FA667E11-01F9-429E-93B5-48BF19FCE058}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{02D99266-1D5F-43E8-BD4F-608EDFB1144A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D70FDE29-0E20-4B70-97A5-489530078938}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{34BE1201-6851-442C-BD73-FBE2783583AA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3F2BF99-D7AD-443A-B147-6F5361BEC0E7}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FB980C71-EDD4-4ED5-B737-19F4B0751AB1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1F8D0EAD-5BA1-4AC8-8533-16CC3FC77951}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F013D51-1391-48E5-AB3A-AE3543777A55}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D0BEDB5-675A-4634-92C8-779246025D22}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF2CC7CA-833F-42D7-A4E7-5E5676C7A2AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F1CDE1BB-517A-4D8D-8C1B-97AA7127DC73}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43964F90-3DF4-4A33-8539-1EDD587B9CAA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5AE62DDD-6776-4D78-98FC-28A9583938E5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13881,7 +13881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3B189E-2E09-4C81-9B2F-68FB459092B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC0F4D8-DA1E-4DE6-8D9F-A3A26D2B0712}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15118,18 +15118,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48BB0247-FFA0-4497-9748-2820D33DB0DC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{047880C7-7FA5-421F-8AFD-339214F86B54}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{224913EC-EF39-4388-9C18-1D337F77B56A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3C16BC47-8F94-4BFD-BDFD-0E560314E29B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{607F02EA-BBED-4EB4-9A05-EB2C3A2BC892}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BFD9E564-FE88-43DA-A452-A0A49312F803}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E470B715-E296-4E49-8490-0AB35F4C4D54}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5AD2782E-D6EB-4316-84E4-9B93FF47D978}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8E8CF4D-F620-420E-A257-2530537EEE73}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CF47B334-B39C-4920-A6B0-C4A0BF49A88F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{549DBCB4-5E55-455F-B4FF-3A94A95B762B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD4E632D-C433-42EA-A81A-80DAAD5C984D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7FB6CBCD-AB69-4B47-9A88-3A1C0B474B87}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06C29B3B-F09A-4C36-9C26-77A9BB9F0275}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AF07D6C4-3274-4AF6-B290-A6A157607C0E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1F4620EF-1D76-4092-8E14-9715C1C087EC}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D00AFC45-C931-4267-A626-9A8DFFF1750D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1682F279-ABF9-4F4C-B4A2-437917D42B0B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ADA96460-9414-4D79-8B19-1E7A658F3B42}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{465B39F9-9ADB-4A35-AA68-2FB4F6C998BA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90B58731-66E8-4108-9D79-6DD4C4B1C040}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1AA55DAD-76C3-4C17-9031-26ADA7FCC18C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13F10E11-A066-45E4-BF48-D696F43E438B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6CEEF579-3A06-40F4-A879-70B87A5F16EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15142,7 +15142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B846967-6A01-4F19-9738-65BFA04B5557}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63A44ED-6C94-4A0F-8F14-8FE5C9A8CEFE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16375,18 +16375,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69CF95B9-28A5-4948-8668-A38590830D3A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84C35CA6-917F-420C-916D-EC8C12D80FEA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CD24BA6B-354E-40A5-A18B-6D9BEDA22B4A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{637B75BE-4B3D-46FD-B2B5-6F14850E86CE}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{280DDE41-BE85-44C8-88B9-3316B3AE238D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F7E5B94B-34A0-428F-B9E9-3E929DB772C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FAEA5586-EA84-4460-8624-E687973708A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FFF4B7A-4E4D-49E9-A0AC-622AC8370AB9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D69942F4-3720-4959-8A07-E0B14EAE8365}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{79510FE4-446B-45F1-80AE-5806ED83F8D5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{863C92ED-3AE3-43E2-93CF-DEE1F3B15B41}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3B9EA2E-4F77-4C3F-A80C-153F50D3E80B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5EB73E7-A582-4A3C-A61D-94E7FD5BBFF1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F65D90D-FA9F-42D0-B69F-A64F362745C0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2A1AC2C2-AC7C-4E88-977E-F6C69ACF8F0C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C988A0F1-E010-4971-9721-E502D0004E54}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6DF57674-B913-4DC5-834F-AA12CF658642}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79E94FC2-0B6F-4762-8E99-6D97AC7A8D39}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2714D08-FE5D-42F8-B357-7C21EA10FF6B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9725CAA8-20E3-48B8-84DC-80AEDC32B516}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82877802-FE99-4285-A288-875E8498D5CF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{786E2C01-DBA1-46B9-B895-287116AAEDE0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F0D5BA85-4A5D-4861-A0BC-603A95B626E1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63C577C9-4A06-4BE9-A02C-09DE8A3F1C7B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
